--- a/src/main/resources/excel/dir_output.xlsx
+++ b/src/main/resources/excel/dir_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFB523-7DE9-4655-A005-E1A58A04967F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05093C16-E800-4555-92D7-D7412C3E6985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Colonna per Colonna Demo</t>
   </si>
   <si>
-    <t>${obj}</t>
-  </si>
-  <si>
     <t>${s1_col1}</t>
   </si>
   <si>
     <t>${s1_col3}</t>
+  </si>
+  <si>
+    <t>${s1_table}</t>
   </si>
   <si>
     <t/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/dir_output.xlsx
+++ b/src/main/resources/excel/dir_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05093C16-E800-4555-92D7-D7412C3E6985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F694D-B08B-4AC8-85A1-4C5A43689F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="139">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -54,6 +55,30 @@
     <t>${s1_table}</t>
   </si>
   <si>
+    <t>${s2_col1}</t>
+  </si>
+  <si>
+    <t>${s3_table}</t>
+  </si>
+  <si>
+    <t>${s2_table}</t>
+  </si>
+  <si>
+    <t>Prima tabella:</t>
+  </si>
+  <si>
+    <t>Seconda tabella:</t>
+  </si>
+  <si>
+    <t>Terza  tabella:</t>
+  </si>
+  <si>
+    <t>${s3_col4}</t>
+  </si>
+  <si>
+    <t>Totale:</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -82,6 +107,366 @@
   </si>
   <si>
     <t xml:space="preserve"> PROVA 4</t>
+  </si>
+  <si>
+    <t>FIOGIA</t>
+  </si>
+  <si>
+    <t>SANCOS</t>
+  </si>
+  <si>
+    <t>PARFRA</t>
+  </si>
+  <si>
+    <t>FORFED</t>
+  </si>
+  <si>
+    <t>BELQUI</t>
+  </si>
+  <si>
+    <t>ROCMAT</t>
+  </si>
+  <si>
+    <t>MAEOLI</t>
+  </si>
+  <si>
+    <t>CARLUC</t>
+  </si>
+  <si>
+    <t>CASFRA</t>
+  </si>
+  <si>
+    <t>DELGIO</t>
+  </si>
+  <si>
+    <t>MINCLA</t>
+  </si>
+  <si>
+    <t>FEDROB</t>
+  </si>
+  <si>
+    <t>MARAND</t>
+  </si>
+  <si>
+    <t>0000000072</t>
+  </si>
+  <si>
+    <t>0000000073</t>
+  </si>
+  <si>
+    <t>0000000074</t>
+  </si>
+  <si>
+    <t>0000000075</t>
+  </si>
+  <si>
+    <t>0000000076</t>
+  </si>
+  <si>
+    <t>0000000078</t>
+  </si>
+  <si>
+    <t>0000000080</t>
+  </si>
+  <si>
+    <t>0000000084</t>
+  </si>
+  <si>
+    <t>0000000085</t>
+  </si>
+  <si>
+    <t>0000000087</t>
+  </si>
+  <si>
+    <t>0000000088</t>
+  </si>
+  <si>
+    <t>0000000090</t>
+  </si>
+  <si>
+    <t>0000000091</t>
+  </si>
+  <si>
+    <t>0000000092</t>
+  </si>
+  <si>
+    <t>0000000093</t>
+  </si>
+  <si>
+    <t>0000000094</t>
+  </si>
+  <si>
+    <t>0000000095</t>
+  </si>
+  <si>
+    <t>0000000096</t>
+  </si>
+  <si>
+    <t>0000000097</t>
+  </si>
+  <si>
+    <t>0000000098</t>
+  </si>
+  <si>
+    <t>0000000099</t>
+  </si>
+  <si>
+    <t>0000000100</t>
+  </si>
+  <si>
+    <t>0000000101</t>
+  </si>
+  <si>
+    <t>0000000102</t>
+  </si>
+  <si>
+    <t>0000000103</t>
+  </si>
+  <si>
+    <t>0000000104</t>
+  </si>
+  <si>
+    <t>0000000105</t>
+  </si>
+  <si>
+    <t>0000000106</t>
+  </si>
+  <si>
+    <t>0000000107</t>
+  </si>
+  <si>
+    <t>0000000108</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Loocup</t>
+  </si>
+  <si>
+    <t>Webup</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Configuratore : aiutare Federico sulla definizione del protocollo aggiornamento.</t>
+  </si>
+  <si>
+    <t>booleanButton: in mobile non esiste questo componente</t>
+  </si>
+  <si>
+    <t>In mobile, css da modificare:
+spinner (SPN)
+slider (SLD)
+radiobutton (RAD)
+checkboxlist (CHL)
+immagine (IMG)
+rating (RTG)
+range (RNG)
+button colore default (BTN)</t>
+  </si>
+  <si>
+    <t>controllare quali field non hanno il p:ajax</t>
+  </si>
+  <si>
+    <t>signature: in mobile non viene renderizzato (e neanche in web)</t>
+  </si>
+  <si>
+    <t>Graphcomp selectManyMenu: in mobile viene na schifezza</t>
+  </si>
+  <si>
+    <t>Lavori sui graphcomp (vedi allegato)</t>
+  </si>
+  <si>
+    <t>Immagini store e descrizione da aggiornare (apple e google)</t>
+  </si>
+  <si>
+    <t>Per i B2B potrebbe essere necessaria una paginetta che sostituisca la login quando il sistema non Ã¨ attivo (Es. manutenzione provider, ecc..) Segnalato da Seven Diesel</t>
+  </si>
+  <si>
+    <t>formulas (matrice). Fatte due schede d'esempio, manca l'implementazione web. Vedere classi (SmeupFormulaSolver) Loocup in progetto SmeDevSVN</t>
+  </si>
+  <si>
+    <t>configuratore (compresa la ricorsione, di cui abbiamo creato un esempio).</t>
+  </si>
+  <si>
+    <t>verificare dinamismi al close</t>
+  </si>
+  <si>
+    <t>verificare differenze vecchia/nuova matrice mobile</t>
+  </si>
+  <si>
+    <t>scovare (e risolvere) memory leak delphi. In alternativa, decidere se ha senso fregrarsene</t>
+  </si>
+  <si>
+    <t>SPC: verificare errori segnalati da Roberta Colombo (vedi email). Prima di tutto riprendere in mano il componente a studiarne il funzionamento.
+Dobbiamo dare una risposta il prima possibile. C'Ã¨ il cliente sul piede di guerra, minaccia di prendere un'altra soluzione.</t>
+  </si>
+  <si>
+    <t>leggere dimensioni scheda da setup e usarle nei dialog. Confrontarsi con Claudio per decidere come mettere le suddette dimensioni nella pagina.</t>
+  </si>
+  <si>
+    <t>rendere la scheda task utilizzabile da mobile</t>
+  </si>
+  <si>
+    <t>ridiscutere MDV con Silvio e Mauro, rispetto a quanto ci siamo detti sull'implementazione "finale". In alternativa andare di implementazione base, con iupopup che gestiscono una tendina (leaf=Din)</t>
+  </si>
+  <si>
+    <t>Provider: gestire le A() cieche, sia quelle che non rispondono che quelle che rispondono con una action di tipo F()</t>
+  </si>
+  <si>
+    <t>Provider su linux:  Creare progetto su SVN. Creare progetto eclipse sulla vm linux creata da gianluca e farlo partire come webapp. Iniziare con i test sulle cartelle.</t>
+  </si>
+  <si>
+    <t>problemi css da mail di Stefano Lancini</t>
+  </si>
+  <si>
+    <t>ottimizzazione inputpanel: caricare combo lazy</t>
+  </si>
+  <si>
+    <t>Insert e Delete in input panel non sono tradotti!</t>
+  </si>
+  <si>
+    <t>CSS per dimensionamento dei dialog: come dobbiamo modificare la parte jsf per impostarlo leggendolo dalla scheda? E il default quale deve essere?</t>
+  </si>
+  <si>
+    <t>modificare box progetto in task</t>
+  </si>
+  <si>
+    <t>aggiungere ai box dei task la prioritÃ </t>
+  </si>
+  <si>
+    <t>mobile verificare colorPicker, editor (OK), listbox (mobile NO, webup NO con checkbox + problemi ctrl in mac)</t>
+  </si>
+  <si>
+    <t>validare implementazione di *CHECK</t>
+  </si>
+  <si>
+    <t>Rivedere in toto le procedure rilascio loocup</t>
+  </si>
+  <si>
+    <t>deviare ja_00_ cartelle e file nel caso di j8 e j9</t>
+  </si>
+  <si>
+    <t>WU3_01</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/17ClkDi_VNQH93mld-gPUJ112f17P_rmef1mk4lFQkC8/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Sud3aZ_qKknlbsrLTmAH16Tl-Bgcn0385_LbDmU-Zq4/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -130,18 +515,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -150,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -159,6 +559,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="9.140625" collapsed="false"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
     <col min="3" max="3" width="8.0" customWidth="true"/>
     <col min="4" max="4" width="8.0" customWidth="true"/>
@@ -492,6 +894,13 @@
     <col min="9" max="9" width="8.0" customWidth="true"/>
     <col min="10" max="10" width="8.0" customWidth="true"/>
     <col min="11" max="11" width="8.0" customWidth="true"/>
+    <col min="12" max="12" width="8.0" customWidth="true"/>
+    <col min="13" max="13" width="8.0" customWidth="true"/>
+    <col min="14" max="14" width="8.0" customWidth="true"/>
+    <col min="15" max="15" width="8.0" customWidth="true"/>
+    <col min="16" max="16" width="8.0" customWidth="true"/>
+    <col min="17" max="17" width="8.0" customWidth="true"/>
+    <col min="18" max="18" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
@@ -505,16 +914,18 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="n">
@@ -524,63 +935,63 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A4" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A4" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="n">
+      <c r="D4" t="n" s="5">
         <v>0.0</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" t="n" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="n">
@@ -590,30 +1001,30 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A6" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="n">
@@ -623,63 +1034,63 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A7" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A7" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="n">
+      <c r="D7" t="n" s="5">
         <v>3.0</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="n">
@@ -689,30 +1100,30 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="9" t="n">
         <v>10.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="n">
@@ -722,30 +1133,30 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="9" t="n">
         <v>15.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="n">
@@ -755,30 +1166,30 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="9" t="n">
         <v>50.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="n">
@@ -788,30 +1199,30 @@
         <v>1.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="9" t="n">
         <v>101.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="n">
@@ -821,30 +1232,30 @@
         <v>60.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="n" s="2">
+      <c r="A13" t="n" s="9">
         <v>200.0</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n" s="5">
         <v>200.0</v>
@@ -853,30 +1264,30 @@
         <v>60.0</v>
       </c>
       <c r="F13" t="s" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="9">
+        <v>900.0</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="n" s="2">
-        <v>900.0</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>5</v>
       </c>
       <c r="D14" t="n" s="5">
         <v>900.0</v>
@@ -885,22 +1296,1838 @@
         <v>60.0</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="J14" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s" s="5">
-        <v>13</v>
+      <c r="B15" s="8">
+        <f>SUM(A3:A14)</f>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="true">
+      <c r="D16" t="s" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="D17" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="n" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="F17" t="n" s="2">
+        <v>-1.12</v>
+      </c>
+      <c r="G17" t="n" s="2">
+        <v>-1.05</v>
+      </c>
+      <c r="H17" t="n" s="2">
+        <v>1.102</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="n" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D18" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F18" t="n" s="2">
+        <v>-2.13</v>
+      </c>
+      <c r="G18" t="n" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="H18" t="n" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K18" t="n" s="2">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="A19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F19" t="n" s="2">
+        <v>-3.14</v>
+      </c>
+      <c r="G19" t="n" s="2">
+        <v>-3.0</v>
+      </c>
+      <c r="H19" t="n" s="2">
+        <v>-3.12541</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="J19" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K19" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="true">
+      <c r="A20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E20" t="n" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="F20" t="n" s="2">
+        <v>-4.15</v>
+      </c>
+      <c r="G20" t="n" s="2">
+        <v>-4.0</v>
+      </c>
+      <c r="H20" t="n" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J20" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K20" t="n" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="A21" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F21" t="n" s="2">
+        <v>-12.16</v>
+      </c>
+      <c r="G21" t="n" s="2">
+        <v>-12.0</v>
+      </c>
+      <c r="H21" t="n" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="J21" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K21" t="n" s="2">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E22" t="n" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="F22" t="n" s="2">
+        <v>-13.0</v>
+      </c>
+      <c r="G22" t="n" s="2">
+        <v>-13.0</v>
+      </c>
+      <c r="H22" t="n" s="2">
+        <v>1.3123213012E7</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K22" t="n" s="2">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.0" customHeight="true">
+      <c r="A23" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E23" t="n" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F23" t="n" s="2">
+        <v>-14.01</v>
+      </c>
+      <c r="G23" t="n" s="2">
+        <v>-14.0</v>
+      </c>
+      <c r="H23" t="n" s="2">
+        <v>1123114.49</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K23" t="n" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="true">
+      <c r="A24" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D24" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E24" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="F24" t="n" s="2">
+        <v>-35.02</v>
+      </c>
+      <c r="G24" t="n" s="2">
+        <v>-35.0</v>
+      </c>
+      <c r="H24" t="n" s="2">
+        <v>1235.359</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K24" t="n" s="2">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="A25" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D25" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="F25" t="n" s="2">
+        <v>-55.03</v>
+      </c>
+      <c r="G25" t="n" s="2">
+        <v>-55.0</v>
+      </c>
+      <c r="H25" t="n" s="2">
+        <v>9955.0</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K25" t="n" s="2">
+        <v>55.22</v>
+      </c>
+    </row>
+    <row r="26" ht="15.0" customHeight="true">
+      <c r="A26" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="F26" t="n" s="2">
+        <v>-121.0</v>
+      </c>
+      <c r="G26" t="n" s="2">
+        <v>-121.0</v>
+      </c>
+      <c r="H26" t="n" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K26" t="n" s="2">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="27" ht="15.0" customHeight="true">
+      <c r="A27" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="15.0" customHeight="true">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P29" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="true">
+      <c r="B30" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P30" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="B31" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M31" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P31" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" ht="15.0" customHeight="true">
+      <c r="B32" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M32" t="n" s="2">
+        <v>2.016021E7</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P32" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" ht="15.0" customHeight="true">
+      <c r="B33" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M33" t="n" s="2">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P33" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" ht="15.0" customHeight="true">
+      <c r="B34" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P34" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" ht="15.0" customHeight="true">
+      <c r="B35" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M35" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P35" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" ht="15.0" customHeight="true">
+      <c r="B36" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M36" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P36" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" ht="15.0" customHeight="true">
+      <c r="B37" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M37" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P37" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" ht="15.0" customHeight="true">
+      <c r="B38" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M38" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P38" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q38" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="15.0" customHeight="true">
+      <c r="B39" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M39" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="P39" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="B40" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M40" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P40" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" ht="15.0" customHeight="true">
+      <c r="B41" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M41" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P41" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" ht="15.0" customHeight="true">
+      <c r="B42" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M42" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P42" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" ht="15.0" customHeight="true">
+      <c r="B43" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M43" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P43" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" ht="15.0" customHeight="true">
+      <c r="B44" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M44" t="n" s="2">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P44" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q44" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" ht="15.0" customHeight="true">
+      <c r="B45" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M45" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" ht="15.0" customHeight="true">
+      <c r="B46" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M46" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P46" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q46" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" ht="15.0" customHeight="true">
+      <c r="B47" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M47" t="n" s="2">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P47" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="true">
+      <c r="B48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M48" t="n" s="2">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P48" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" ht="15.0" customHeight="true">
+      <c r="B49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M49" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P49" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" ht="15.0" customHeight="true">
+      <c r="D50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M50" t="n" s="2">
+        <v>2.016031E7</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P50" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" ht="15.0" customHeight="true">
+      <c r="D51" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M51" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P51" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" ht="15.0" customHeight="true">
+      <c r="D52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M52" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P52" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" ht="15.0" customHeight="true">
+      <c r="D53" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M53" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P53" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" ht="15.0" customHeight="true">
+      <c r="D54" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M54" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P54" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" ht="15.0" customHeight="true">
+      <c r="D55" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M55" t="n" s="2">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P55" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" ht="15.0" customHeight="true">
+      <c r="D56" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M56" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P56" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" ht="15.0" customHeight="true">
+      <c r="D57" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M57" t="n" s="2">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P57" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q57" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" ht="15.0" customHeight="true">
+      <c r="D58" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="M58" t="n" s="2">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P58" t="n" s="2">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/dir_output.xlsx
+++ b/src/main/resources/excel/dir_output.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="157">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -744,13 +744,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyFont="true"/>
@@ -1171,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1187,17 +1216,32 @@
     <col min="6" max="6" customWidth="true" style="3" width="20.19140625" collapsed="true" bestFit="true"/>
     <col min="7" max="7" customWidth="true" style="3" width="19.6171875" collapsed="true" bestFit="true"/>
     <col min="8" max="8" customWidth="true" style="3" width="18.3203125" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="9.0859375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="7.5703125" collapsed="true" bestFit="true"/>
     <col min="10" max="10" customWidth="true" style="3" width="16.890625" collapsed="true" bestFit="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="9.453125" collapsed="true" bestFit="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="9.4296875" collapsed="true" bestFit="true"/>
     <col min="12" max="12" customWidth="true" style="3" width="19.7109375" collapsed="true" bestFit="true"/>
     <col min="13" max="13" customWidth="true" style="3" width="18.14453125" collapsed="true" bestFit="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="177.5" collapsed="true" bestFit="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="15.99609375" collapsed="true" bestFit="true"/>
     <col min="15" max="15" customWidth="true" style="3" width="19.0703125" collapsed="true" bestFit="true"/>
     <col min="16" max="16" customWidth="true" style="3" width="17.0390625" collapsed="true" bestFit="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="99.84765625" collapsed="true" bestFit="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="4.84375" collapsed="true" bestFit="true"/>
-    <col min="19" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="8.01953125" collapsed="true" bestFit="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="9.453125" collapsed="true" bestFit="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="9.453125" collapsed="true" bestFit="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="1.03515625" collapsed="true" bestFit="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="1.03515625" collapsed="true" bestFit="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="9.95703125" collapsed="true" bestFit="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="9.95703125" collapsed="true" bestFit="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="177.5" collapsed="true" bestFit="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="177.5" collapsed="true" bestFit="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="8.84375" collapsed="true" bestFit="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="8.84375" collapsed="true" bestFit="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="9.95703125" collapsed="true" bestFit="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="9.95703125" collapsed="true" bestFit="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="99.84765625" collapsed="true" bestFit="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="99.84765625" collapsed="true" bestFit="true"/>
+    <col min="32" max="32" customWidth="true" style="3" width="3.265625" collapsed="true" bestFit="true"/>
+    <col min="33" max="33" customWidth="true" style="3" width="3.265625" collapsed="true" bestFit="true"/>
+    <col min="34" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
@@ -1233,24 +1277,48 @@
         <v>3.0</v>
       </c>
       <c r="E3" s="16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F3" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="16">
-        <v>15</v>
+      <c r="G3" t="n" s="16">
+        <v>1.0</v>
       </c>
       <c r="H3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="M3" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="16">
+      <c r="O3" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="Q3" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1266,24 +1334,48 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G4" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="16">
+      <c r="I4" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="M4" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J4" t="s" s="16">
+      <c r="O4" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="Q4" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1301,22 +1393,46 @@
       <c r="E5" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G5" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s" s="16">
+      <c r="I5" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="M5" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="O5" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K5" t="s" s="16">
+      <c r="Q5" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1332,24 +1448,48 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s" s="16">
+      <c r="I6" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="16">
+      <c r="M6" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J6" t="s" s="16">
+      <c r="O6" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K6" t="s" s="16">
+      <c r="Q6" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S6" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1365,24 +1505,48 @@
         <v>3.0</v>
       </c>
       <c r="E7" s="16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="16">
+      <c r="I7" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I7" t="s" s="16">
+      <c r="M7" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J7" t="s" s="16">
+      <c r="O7" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K7" t="s" s="16">
+      <c r="Q7" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1398,24 +1562,48 @@
         <v>5.0</v>
       </c>
       <c r="E8" s="16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="G8" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s" s="16">
+      <c r="I8" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I8" t="s" s="16">
+      <c r="M8" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J8" t="s" s="16">
+      <c r="O8" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K8" t="s" s="16">
+      <c r="Q8" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1431,24 +1619,48 @@
         <v>10.0</v>
       </c>
       <c r="E9" s="16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="G9" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s" s="16">
+      <c r="I9" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I9" t="s" s="16">
+      <c r="M9" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J9" t="s" s="16">
+      <c r="O9" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K9" t="s" s="16">
+      <c r="Q9" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1464,24 +1676,48 @@
         <v>15.0</v>
       </c>
       <c r="E10" s="16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F10" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="G10" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="16">
+      <c r="I10" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I10" t="s" s="16">
+      <c r="M10" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J10" t="s" s="16">
+      <c r="O10" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K10" t="s" s="16">
+      <c r="Q10" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S10" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1497,24 +1733,48 @@
         <v>50.0</v>
       </c>
       <c r="E11" s="16" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <v>1.0</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="G11" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s" s="16">
+      <c r="I11" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I11" t="s" s="16">
+      <c r="M11" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J11" t="s" s="16">
+      <c r="O11" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K11" t="s" s="16">
+      <c r="Q11" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1530,24 +1790,48 @@
         <v>101.0</v>
       </c>
       <c r="E12" s="16" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F12" s="16" t="n">
         <v>60.0</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" t="n" s="16">
+        <v>60.0</v>
+      </c>
+      <c r="H12" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="G12" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s" s="16">
+      <c r="I12" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I12" t="s" s="16">
+      <c r="M12" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J12" t="s" s="16">
+      <c r="O12" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K12" t="s" s="16">
+      <c r="Q12" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S12" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1562,24 +1846,48 @@
         <v>200.0</v>
       </c>
       <c r="E13" t="n" s="16">
+        <v>200.0</v>
+      </c>
+      <c r="F13" t="n" s="16">
         <v>60.0</v>
       </c>
-      <c r="F13" t="s" s="16">
+      <c r="G13" t="n" s="16">
+        <v>60.0</v>
+      </c>
+      <c r="H13" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s" s="16">
+      <c r="I13" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I13" t="s" s="16">
+      <c r="M13" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J13" t="s" s="16">
+      <c r="O13" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K13" t="s" s="16">
+      <c r="Q13" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1594,24 +1902,48 @@
         <v>900.0</v>
       </c>
       <c r="E14" t="n" s="16">
+        <v>900.0</v>
+      </c>
+      <c r="F14" t="n" s="16">
         <v>60.0</v>
       </c>
-      <c r="F14" t="s" s="16">
+      <c r="G14" t="n" s="16">
+        <v>60.0</v>
+      </c>
+      <c r="H14" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="G14" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s" s="16">
+      <c r="I14" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="I14" t="s" s="16">
+      <c r="M14" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="J14" t="s" s="16">
+      <c r="O14" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="K14" t="s" s="16">
+      <c r="Q14" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="S14" t="s" s="16">
         <v>24</v>
       </c>
     </row>
@@ -1634,24 +1966,48 @@
         <v>5.0</v>
       </c>
       <c r="E17" t="n" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="F17" t="n" s="15">
         <v>1.1</v>
       </c>
-      <c r="F17" t="n" s="15">
+      <c r="G17" t="n" s="15">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n" s="15">
         <v>-1.12</v>
       </c>
-      <c r="G17" t="n" s="15">
+      <c r="I17" t="n" s="15">
+        <v>-1.12</v>
+      </c>
+      <c r="J17" t="n" s="15">
         <v>-1.05</v>
       </c>
-      <c r="H17" t="n" s="15">
+      <c r="K17" t="n" s="15">
+        <v>-1.05</v>
+      </c>
+      <c r="L17" t="n" s="15">
         <v>1.102</v>
       </c>
-      <c r="I17" t="s" s="15">
+      <c r="M17" t="n" s="15">
+        <v>1.102</v>
+      </c>
+      <c r="N17" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="J17" t="n" s="15">
+      <c r="O17" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="P17" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K17" t="n" s="15">
+      <c r="Q17" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="S17" t="n" s="15">
         <v>20.0</v>
       </c>
     </row>
@@ -1666,24 +2022,48 @@
         <v>1.0</v>
       </c>
       <c r="E18" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n" s="15">
         <v>2.0</v>
       </c>
-      <c r="F18" t="n" s="15">
+      <c r="G18" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n" s="15">
         <v>-2.13</v>
       </c>
-      <c r="G18" t="n" s="15">
+      <c r="I18" t="n" s="15">
+        <v>-2.13</v>
+      </c>
+      <c r="J18" t="n" s="15">
         <v>-2.5</v>
       </c>
-      <c r="H18" t="n" s="15">
+      <c r="K18" t="n" s="15">
+        <v>-2.5</v>
+      </c>
+      <c r="L18" t="n" s="15">
         <v>2.1</v>
       </c>
-      <c r="I18" t="s" s="15">
+      <c r="M18" t="n" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="N18" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="J18" t="n" s="15">
+      <c r="O18" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="P18" t="n" s="15">
         <v>2.0</v>
       </c>
-      <c r="K18" t="n" s="15">
+      <c r="Q18" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="R18" t="n" s="15">
+        <v>33.3</v>
+      </c>
+      <c r="S18" t="n" s="15">
         <v>33.3</v>
       </c>
     </row>
@@ -1698,24 +2078,48 @@
         <v>1.0</v>
       </c>
       <c r="E19" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F19" t="n" s="15">
         <v>3.1</v>
       </c>
-      <c r="F19" t="n" s="15">
+      <c r="G19" t="n" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="H19" t="n" s="15">
         <v>-3.14</v>
       </c>
-      <c r="G19" t="n" s="15">
+      <c r="I19" t="n" s="15">
+        <v>-3.14</v>
+      </c>
+      <c r="J19" t="n" s="15">
         <v>-3.0</v>
       </c>
-      <c r="H19" t="n" s="15">
+      <c r="K19" t="n" s="15">
+        <v>-3.0</v>
+      </c>
+      <c r="L19" t="n" s="15">
         <v>-3.12541</v>
       </c>
-      <c r="I19" t="s" s="15">
+      <c r="M19" t="n" s="15">
+        <v>-3.12541</v>
+      </c>
+      <c r="N19" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="J19" t="n" s="15">
+      <c r="O19" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="P19" t="n" s="15">
         <v>3.0</v>
       </c>
-      <c r="K19" t="n" s="15">
+      <c r="Q19" t="n" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="R19" t="n" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -1730,24 +2134,48 @@
         <v>2.0</v>
       </c>
       <c r="E20" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F20" t="n" s="15">
         <v>4.2</v>
       </c>
-      <c r="F20" t="n" s="15">
+      <c r="G20" t="n" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H20" t="n" s="15">
         <v>-4.15</v>
       </c>
-      <c r="G20" t="n" s="15">
+      <c r="I20" t="n" s="15">
+        <v>-4.15</v>
+      </c>
+      <c r="J20" t="n" s="15">
         <v>-4.0</v>
       </c>
-      <c r="H20" t="n" s="15">
+      <c r="K20" t="n" s="15">
+        <v>-4.0</v>
+      </c>
+      <c r="L20" t="n" s="15">
         <v>4.4</v>
       </c>
-      <c r="I20" t="s" s="15">
+      <c r="M20" t="n" s="15">
+        <v>4.4</v>
+      </c>
+      <c r="N20" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="J20" t="n" s="15">
+      <c r="O20" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="P20" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K20" t="n" s="15">
+      <c r="Q20" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -1762,24 +2190,48 @@
         <v>2.0</v>
       </c>
       <c r="E21" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="n" s="15">
         <v>12.0</v>
       </c>
-      <c r="F21" t="n" s="15">
+      <c r="G21" t="n" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="H21" t="n" s="15">
         <v>-12.16</v>
       </c>
-      <c r="G21" t="n" s="15">
+      <c r="I21" t="n" s="15">
+        <v>-12.16</v>
+      </c>
+      <c r="J21" t="n" s="15">
         <v>-12.0</v>
       </c>
-      <c r="H21" t="n" s="15">
+      <c r="K21" t="n" s="15">
+        <v>-12.0</v>
+      </c>
+      <c r="L21" t="n" s="15">
         <v>12.12</v>
       </c>
-      <c r="I21" t="s" s="15">
+      <c r="M21" t="n" s="15">
+        <v>12.12</v>
+      </c>
+      <c r="N21" t="s" s="15">
         <v>29</v>
       </c>
-      <c r="J21" t="n" s="15">
+      <c r="O21" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="P21" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K21" t="n" s="15">
+      <c r="Q21" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R21" t="n" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="S21" t="n" s="15">
         <v>44.0</v>
       </c>
     </row>
@@ -1794,24 +2246,48 @@
         <v>2.0</v>
       </c>
       <c r="E22" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F22" t="n" s="15">
         <v>13.4</v>
       </c>
-      <c r="F22" t="n" s="15">
+      <c r="G22" t="n" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="H22" t="n" s="15">
         <v>-13.0</v>
       </c>
-      <c r="G22" t="n" s="15">
+      <c r="I22" t="n" s="15">
         <v>-13.0</v>
       </c>
-      <c r="H22" t="n" s="15">
+      <c r="J22" t="n" s="15">
+        <v>-13.0</v>
+      </c>
+      <c r="K22" t="n" s="15">
+        <v>-13.0</v>
+      </c>
+      <c r="L22" t="n" s="15">
         <v>1.3123213012E7</v>
       </c>
-      <c r="I22" t="s" s="15">
+      <c r="M22" t="n" s="15">
+        <v>1.3123213012E7</v>
+      </c>
+      <c r="N22" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="J22" t="n" s="15">
+      <c r="O22" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="P22" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K22" t="n" s="15">
+      <c r="Q22" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R22" t="n" s="15">
+        <v>66.0</v>
+      </c>
+      <c r="S22" t="n" s="15">
         <v>66.0</v>
       </c>
     </row>
@@ -1826,24 +2302,48 @@
         <v>2.0</v>
       </c>
       <c r="E23" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F23" t="n" s="15">
         <v>14.1</v>
       </c>
-      <c r="F23" t="n" s="15">
+      <c r="G23" t="n" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="H23" t="n" s="15">
         <v>-14.01</v>
       </c>
-      <c r="G23" t="n" s="15">
+      <c r="I23" t="n" s="15">
+        <v>-14.01</v>
+      </c>
+      <c r="J23" t="n" s="15">
         <v>-14.0</v>
       </c>
-      <c r="H23" t="n" s="15">
+      <c r="K23" t="n" s="15">
+        <v>-14.0</v>
+      </c>
+      <c r="L23" t="n" s="15">
         <v>1123114.49</v>
       </c>
-      <c r="I23" t="s" s="15">
+      <c r="M23" t="n" s="15">
+        <v>1123114.49</v>
+      </c>
+      <c r="N23" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="J23" t="n" s="15">
+      <c r="O23" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="P23" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K23" t="n" s="15">
+      <c r="Q23" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R23" t="n" s="15">
+        <v>100.0</v>
+      </c>
+      <c r="S23" t="n" s="15">
         <v>100.0</v>
       </c>
     </row>
@@ -1858,24 +2358,48 @@
         <v>2.0</v>
       </c>
       <c r="E24" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F24" t="n" s="15">
         <v>35.0</v>
       </c>
-      <c r="F24" t="n" s="15">
+      <c r="G24" t="n" s="15">
+        <v>35.0</v>
+      </c>
+      <c r="H24" t="n" s="15">
         <v>-35.02</v>
       </c>
-      <c r="G24" t="n" s="15">
+      <c r="I24" t="n" s="15">
+        <v>-35.02</v>
+      </c>
+      <c r="J24" t="n" s="15">
         <v>-35.0</v>
       </c>
-      <c r="H24" t="n" s="15">
+      <c r="K24" t="n" s="15">
+        <v>-35.0</v>
+      </c>
+      <c r="L24" t="n" s="15">
         <v>1235.359</v>
       </c>
-      <c r="I24" t="s" s="15">
+      <c r="M24" t="n" s="15">
+        <v>1235.359</v>
+      </c>
+      <c r="N24" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="J24" t="n" s="15">
+      <c r="O24" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="P24" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K24" t="n" s="15">
+      <c r="Q24" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R24" t="n" s="15">
+        <v>1000.0</v>
+      </c>
+      <c r="S24" t="n" s="15">
         <v>1000.0</v>
       </c>
     </row>
@@ -1890,24 +2414,48 @@
         <v>1.0</v>
       </c>
       <c r="E25" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n" s="15">
         <v>55.0</v>
       </c>
-      <c r="F25" t="n" s="15">
+      <c r="G25" t="n" s="15">
+        <v>55.0</v>
+      </c>
+      <c r="H25" t="n" s="15">
         <v>-55.03</v>
       </c>
-      <c r="G25" t="n" s="15">
+      <c r="I25" t="n" s="15">
+        <v>-55.03</v>
+      </c>
+      <c r="J25" t="n" s="15">
         <v>-55.0</v>
       </c>
-      <c r="H25" t="n" s="15">
+      <c r="K25" t="n" s="15">
+        <v>-55.0</v>
+      </c>
+      <c r="L25" t="n" s="15">
         <v>9955.0</v>
       </c>
-      <c r="I25" t="s" s="15">
+      <c r="M25" t="n" s="15">
+        <v>9955.0</v>
+      </c>
+      <c r="N25" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="J25" t="n" s="15">
+      <c r="O25" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="P25" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K25" t="n" s="15">
+      <c r="Q25" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R25" t="n" s="15">
+        <v>55.22</v>
+      </c>
+      <c r="S25" t="n" s="15">
         <v>55.22</v>
       </c>
     </row>
@@ -1922,24 +2470,48 @@
         <v>1.0</v>
       </c>
       <c r="E26" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n" s="15">
         <v>121.0</v>
       </c>
-      <c r="F26" t="n" s="15">
+      <c r="G26" t="n" s="15">
+        <v>121.0</v>
+      </c>
+      <c r="H26" t="n" s="15">
         <v>-121.0</v>
       </c>
-      <c r="G26" t="n" s="15">
+      <c r="I26" t="n" s="15">
         <v>-121.0</v>
       </c>
-      <c r="H26" t="n" s="15">
+      <c r="J26" t="n" s="15">
+        <v>-121.0</v>
+      </c>
+      <c r="K26" t="n" s="15">
+        <v>-121.0</v>
+      </c>
+      <c r="L26" t="n" s="15">
         <v>121.0</v>
       </c>
-      <c r="I26" t="s" s="15">
+      <c r="M26" t="n" s="15">
+        <v>121.0</v>
+      </c>
+      <c r="N26" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="J26" t="n" s="15">
+      <c r="O26" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="P26" t="n" s="15">
         <v>1.0</v>
       </c>
-      <c r="K26" t="n" s="15">
+      <c r="Q26" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R26" t="n" s="15">
+        <v>20.11</v>
+      </c>
+      <c r="S26" t="n" s="15">
         <v>20.11</v>
       </c>
     </row>
@@ -2019,45 +2591,90 @@
         <v>53</v>
       </c>
       <c r="E30" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F30" t="s" s="8">
+      <c r="G30" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="8">
+      <c r="I30" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="H30" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s" s="20">
+      <c r="K30" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s" s="20">
         <v>89</v>
       </c>
-      <c r="J30" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s" s="8">
+      <c r="O30" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R30" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L30" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M30" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N30" t="s" s="8">
+      <c r="S30" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V30" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W30" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X30" t="s" s="8">
         <v>94</v>
       </c>
-      <c r="O30" t="s" s="8">
+      <c r="Y30" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="Z30" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P30" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q30" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R30" t="s" s="8">
+      <c r="AA30" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB30" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC30" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE30" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="AG30" t="s" s="8">
         <v>127</v>
       </c>
     </row>
@@ -2069,45 +2686,90 @@
         <v>54</v>
       </c>
       <c r="E31" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F31" t="s" s="8">
+      <c r="G31" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="8">
+      <c r="I31" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H31" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s" s="21">
+      <c r="K31" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s" s="22">
         <v>89</v>
       </c>
-      <c r="J31" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s" s="8">
+      <c r="O31" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L31" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M31" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N31" t="s" s="8">
+      <c r="S31" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V31" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W31" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X31" t="s" s="8">
         <v>95</v>
       </c>
-      <c r="O31" t="s" s="8">
+      <c r="Y31" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="Z31" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P31" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q31" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R31" t="s" s="8">
+      <c r="AA31" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB31" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC31" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE31" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="AG31" t="s" s="8">
         <v>128</v>
       </c>
     </row>
@@ -2119,45 +2781,90 @@
         <v>55</v>
       </c>
       <c r="E32" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F32" t="s" s="8">
+      <c r="G32" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="8">
+      <c r="I32" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="H32" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s" s="22">
+      <c r="K32" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N32" t="s" s="24">
         <v>89</v>
       </c>
-      <c r="J32" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s" s="8">
+      <c r="O32" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="P32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R32" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="L32" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M32" t="n" s="8">
+      <c r="S32" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="T32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n" s="8">
         <v>2.0160301E7</v>
       </c>
-      <c r="N32" t="s" s="8">
+      <c r="W32" t="n" s="8">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="X32" t="s" s="8">
         <v>96</v>
       </c>
-      <c r="O32" t="s" s="8">
+      <c r="Y32" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="Z32" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P32" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q32" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R32" t="s" s="8">
+      <c r="AA32" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB32" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC32" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="AG32" t="s" s="8">
         <v>129</v>
       </c>
     </row>
@@ -2169,45 +2876,90 @@
         <v>56</v>
       </c>
       <c r="E33" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F33" t="s" s="8">
+      <c r="G33" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="8">
+      <c r="I33" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H33" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s" s="23">
+      <c r="K33" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s" s="26">
         <v>89</v>
       </c>
-      <c r="J33" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s" s="8">
+      <c r="O33" t="s" s="27">
+        <v>89</v>
+      </c>
+      <c r="P33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R33" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L33" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M33" t="n" s="8">
+      <c r="S33" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V33" t="n" s="8">
         <v>2.016021E7</v>
       </c>
-      <c r="N33" t="s" s="8">
+      <c r="W33" t="n" s="8">
+        <v>2.016021E7</v>
+      </c>
+      <c r="X33" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="O33" t="s" s="8">
+      <c r="Y33" t="s" s="8">
+        <v>97</v>
+      </c>
+      <c r="Z33" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P33" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q33" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R33" t="s" s="8">
+      <c r="AA33" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB33" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC33" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE33" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="s" s="8">
+        <v>130</v>
+      </c>
+      <c r="AG33" t="s" s="8">
         <v>130</v>
       </c>
     </row>
@@ -2219,45 +2971,90 @@
         <v>57</v>
       </c>
       <c r="E34" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F34" t="s" s="8">
+      <c r="G34" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="8">
+      <c r="I34" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J34" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="H34" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s" s="24">
+      <c r="K34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="L34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s" s="28">
         <v>89</v>
       </c>
-      <c r="J34" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K34" t="s" s="8">
+      <c r="O34" t="s" s="29">
+        <v>89</v>
+      </c>
+      <c r="P34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R34" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="L34" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M34" t="n" s="8">
+      <c r="S34" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="T34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V34" t="n" s="8">
         <v>2.0160222E7</v>
       </c>
-      <c r="N34" t="s" s="8">
+      <c r="W34" t="n" s="8">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="X34" t="s" s="8">
         <v>98</v>
       </c>
-      <c r="O34" t="s" s="8">
+      <c r="Y34" t="s" s="8">
+        <v>98</v>
+      </c>
+      <c r="Z34" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P34" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q34" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R34" t="s" s="8">
+      <c r="AA34" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB34" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC34" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE34" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="AG34" t="s" s="8">
         <v>131</v>
       </c>
     </row>
@@ -2269,45 +3066,90 @@
         <v>58</v>
       </c>
       <c r="E35" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F35" t="s" s="8">
+      <c r="G35" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G35" t="s" s="8">
+      <c r="I35" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J35" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="H35" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s" s="25">
+      <c r="K35" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s" s="30">
         <v>89</v>
       </c>
-      <c r="J35" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s" s="8">
+      <c r="O35" t="s" s="31">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R35" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L35" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M35" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N35" t="s" s="8">
+      <c r="S35" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V35" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W35" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X35" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="O35" t="s" s="8">
+      <c r="Y35" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="Z35" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P35" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q35" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R35" t="s" s="8">
+      <c r="AA35" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB35" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC35" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE35" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF35" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="AG35" t="s" s="8">
         <v>132</v>
       </c>
     </row>
@@ -2319,45 +3161,90 @@
         <v>59</v>
       </c>
       <c r="E36" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F36" t="s" s="8">
+      <c r="G36" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="8">
+      <c r="I36" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H36" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s" s="26">
+      <c r="K36" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s" s="32">
         <v>89</v>
       </c>
-      <c r="J36" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s" s="8">
+      <c r="O36" t="s" s="33">
+        <v>89</v>
+      </c>
+      <c r="P36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R36" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L36" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M36" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N36" t="s" s="8">
+      <c r="S36" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U36" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W36" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X36" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="O36" t="s" s="8">
+      <c r="Y36" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="Z36" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P36" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q36" t="s" s="27">
+      <c r="AA36" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB36" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC36" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD36" t="s" s="34">
         <v>125</v>
       </c>
-      <c r="R36" t="s" s="8">
+      <c r="AE36" t="s" s="35">
+        <v>125</v>
+      </c>
+      <c r="AF36" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="AG36" t="s" s="8">
         <v>133</v>
       </c>
     </row>
@@ -2369,45 +3256,90 @@
         <v>60</v>
       </c>
       <c r="E37" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="F37" t="s" s="8">
+      <c r="G37" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="G37" t="s" s="8">
+      <c r="I37" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="J37" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="H37" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s" s="28">
+      <c r="K37" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N37" t="s" s="36">
         <v>89</v>
       </c>
-      <c r="J37" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s" s="8">
+      <c r="O37" t="s" s="37">
+        <v>89</v>
+      </c>
+      <c r="P37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R37" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L37" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M37" t="n" s="8">
+      <c r="S37" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n" s="8">
         <v>2.0160205E7</v>
       </c>
-      <c r="N37" t="s" s="8">
+      <c r="W37" t="n" s="8">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="X37" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="O37" t="s" s="8">
+      <c r="Y37" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="Z37" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P37" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q37" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R37" t="s" s="8">
+      <c r="AA37" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB37" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC37" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE37" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="AG37" t="s" s="8">
         <v>134</v>
       </c>
     </row>
@@ -2419,45 +3351,90 @@
         <v>61</v>
       </c>
       <c r="E38" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F38" t="s" s="8">
+      <c r="G38" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="8">
+      <c r="I38" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J38" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H38" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s" s="29">
+      <c r="K38" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s" s="38">
         <v>89</v>
       </c>
-      <c r="J38" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s" s="8">
+      <c r="O38" t="s" s="39">
+        <v>89</v>
+      </c>
+      <c r="P38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R38" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L38" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M38" t="n" s="8">
+      <c r="S38" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V38" t="n" s="8">
         <v>2.0160211E7</v>
       </c>
-      <c r="N38" t="s" s="8">
+      <c r="W38" t="n" s="8">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="X38" t="s" s="8">
         <v>102</v>
       </c>
-      <c r="O38" t="s" s="8">
+      <c r="Y38" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="Z38" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P38" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q38" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R38" t="s" s="8">
+      <c r="AA38" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB38" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC38" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE38" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF38" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="AG38" t="s" s="8">
         <v>135</v>
       </c>
     </row>
@@ -2469,45 +3446,90 @@
         <v>62</v>
       </c>
       <c r="E39" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F39" t="s" s="8">
+      <c r="G39" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G39" t="s" s="8">
+      <c r="I39" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J39" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="H39" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s" s="30">
+      <c r="K39" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s" s="40">
         <v>89</v>
       </c>
-      <c r="J39" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s" s="8">
+      <c r="O39" t="s" s="41">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R39" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L39" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M39" t="n" s="8">
+      <c r="S39" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V39" t="n" s="8">
         <v>2.0160205E7</v>
       </c>
-      <c r="N39" t="s" s="8">
+      <c r="W39" t="n" s="8">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="X39" t="s" s="8">
         <v>103</v>
       </c>
-      <c r="O39" t="s" s="8">
+      <c r="Y39" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="Z39" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P39" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q39" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R39" t="s" s="8">
+      <c r="AA39" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB39" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC39" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE39" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="s" s="8">
+        <v>136</v>
+      </c>
+      <c r="AG39" t="s" s="8">
         <v>136</v>
       </c>
     </row>
@@ -2519,45 +3541,90 @@
         <v>63</v>
       </c>
       <c r="E40" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F40" t="s" s="8">
+      <c r="G40" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G40" t="s" s="8">
+      <c r="I40" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J40" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="H40" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s" s="8">
+      <c r="K40" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="J40" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s" s="8">
+      <c r="O40" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R40" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L40" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M40" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N40" t="s" s="8">
+      <c r="S40" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V40" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W40" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X40" t="s" s="8">
         <v>104</v>
       </c>
-      <c r="O40" t="s" s="8">
+      <c r="Y40" t="s" s="8">
+        <v>104</v>
+      </c>
+      <c r="Z40" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="P40" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q40" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R40" t="s" s="8">
+      <c r="AA40" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="AB40" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC40" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE40" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="AG40" t="s" s="8">
         <v>137</v>
       </c>
     </row>
@@ -2569,45 +3636,90 @@
         <v>64</v>
       </c>
       <c r="E41" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="F41" t="s" s="8">
+      <c r="G41" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="8">
+      <c r="I41" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="H41" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s" s="31">
+      <c r="K41" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N41" t="s" s="42">
         <v>89</v>
       </c>
-      <c r="J41" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K41" t="s" s="8">
+      <c r="O41" t="s" s="43">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R41" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L41" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M41" t="n" s="8">
+      <c r="S41" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V41" t="n" s="8">
         <v>2.0160205E7</v>
       </c>
-      <c r="N41" t="s" s="8">
+      <c r="W41" t="n" s="8">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="X41" t="s" s="8">
         <v>105</v>
       </c>
-      <c r="O41" t="s" s="8">
+      <c r="Y41" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="Z41" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P41" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q41" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R41" t="s" s="8">
+      <c r="AA41" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB41" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC41" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE41" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF41" t="s" s="8">
+        <v>138</v>
+      </c>
+      <c r="AG41" t="s" s="8">
         <v>138</v>
       </c>
     </row>
@@ -2619,45 +3731,90 @@
         <v>65</v>
       </c>
       <c r="E42" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="F42" t="s" s="8">
+      <c r="G42" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="8">
+      <c r="I42" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="H42" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s" s="32">
+      <c r="K42" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s" s="44">
         <v>89</v>
       </c>
-      <c r="J42" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s" s="8">
+      <c r="O42" t="s" s="45">
+        <v>89</v>
+      </c>
+      <c r="P42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R42" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L42" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M42" t="n" s="8">
+      <c r="S42" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U42" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V42" t="n" s="8">
         <v>2.0160206E7</v>
       </c>
-      <c r="N42" t="s" s="8">
+      <c r="W42" t="n" s="8">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="X42" t="s" s="8">
         <v>106</v>
       </c>
-      <c r="O42" t="s" s="8">
+      <c r="Y42" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="Z42" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P42" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q42" t="s" s="33">
+      <c r="AA42" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB42" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC42" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD42" t="s" s="46">
         <v>126</v>
       </c>
-      <c r="R42" t="s" s="8">
+      <c r="AE42" t="s" s="47">
+        <v>126</v>
+      </c>
+      <c r="AF42" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="AG42" t="s" s="8">
         <v>139</v>
       </c>
     </row>
@@ -2669,45 +3826,90 @@
         <v>66</v>
       </c>
       <c r="E43" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F43" t="s" s="8">
+      <c r="G43" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G43" t="s" s="8">
+      <c r="I43" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J43" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="H43" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s" s="34">
+      <c r="K43" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N43" t="s" s="48">
         <v>89</v>
       </c>
-      <c r="J43" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s" s="8">
+      <c r="O43" t="s" s="49">
+        <v>89</v>
+      </c>
+      <c r="P43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R43" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L43" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M43" t="n" s="8">
+      <c r="S43" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V43" t="n" s="8">
         <v>2.0160206E7</v>
       </c>
-      <c r="N43" t="s" s="8">
+      <c r="W43" t="n" s="8">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="X43" t="s" s="8">
         <v>107</v>
       </c>
-      <c r="O43" t="s" s="8">
+      <c r="Y43" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="Z43" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P43" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q43" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R43" t="s" s="8">
+      <c r="AA43" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB43" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC43" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE43" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF43" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="AG43" t="s" s="8">
         <v>140</v>
       </c>
     </row>
@@ -2719,45 +3921,90 @@
         <v>67</v>
       </c>
       <c r="E44" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F44" t="s" s="8">
+      <c r="G44" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G44" t="s" s="8">
+      <c r="I44" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J44" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="H44" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s" s="35">
+      <c r="K44" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="L44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s" s="50">
         <v>89</v>
       </c>
-      <c r="J44" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s" s="8">
+      <c r="O44" t="s" s="51">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R44" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L44" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M44" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N44" t="s" s="8">
+      <c r="S44" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V44" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W44" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X44" t="s" s="8">
         <v>108</v>
       </c>
-      <c r="O44" t="s" s="8">
+      <c r="Y44" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="Z44" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P44" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q44" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R44" t="s" s="8">
+      <c r="AA44" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB44" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC44" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE44" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF44" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="AG44" t="s" s="8">
         <v>141</v>
       </c>
     </row>
@@ -2769,45 +4016,90 @@
         <v>68</v>
       </c>
       <c r="E45" t="s" s="8">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F45" t="s" s="8">
+      <c r="G45" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H45" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G45" t="s" s="8">
+      <c r="I45" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J45" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="H45" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s" s="36">
+      <c r="K45" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s" s="52">
         <v>89</v>
       </c>
-      <c r="J45" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s" s="8">
+      <c r="O45" t="s" s="53">
+        <v>89</v>
+      </c>
+      <c r="P45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R45" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L45" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M45" t="n" s="8">
+      <c r="S45" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V45" t="n" s="8">
         <v>2.0160206E7</v>
       </c>
-      <c r="N45" t="s" s="8">
+      <c r="W45" t="n" s="8">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="X45" t="s" s="8">
         <v>109</v>
       </c>
-      <c r="O45" t="s" s="8">
+      <c r="Y45" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="Z45" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P45" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q45" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R45" t="s" s="8">
+      <c r="AA45" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB45" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC45" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE45" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF45" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="AG45" t="s" s="8">
         <v>142</v>
       </c>
     </row>
@@ -2819,45 +4111,90 @@
         <v>69</v>
       </c>
       <c r="E46" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F46" t="s" s="8">
+      <c r="G46" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G46" t="s" s="8">
+      <c r="I46" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J46" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="H46" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s" s="37">
+      <c r="K46" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s" s="54">
         <v>89</v>
       </c>
-      <c r="J46" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s" s="8">
+      <c r="O46" t="s" s="55">
+        <v>89</v>
+      </c>
+      <c r="P46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R46" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L46" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M46" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N46" t="s" s="8">
+      <c r="S46" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V46" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W46" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X46" t="s" s="8">
         <v>110</v>
       </c>
-      <c r="O46" t="s" s="8">
+      <c r="Y46" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="Z46" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P46" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q46" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R46" t="s" s="8">
+      <c r="AA46" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB46" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC46" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE46" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF46" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="AG46" t="s" s="8">
         <v>143</v>
       </c>
     </row>
@@ -2869,45 +4206,90 @@
         <v>70</v>
       </c>
       <c r="E47" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F47" t="s" s="8">
+      <c r="G47" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G47" t="s" s="8">
+      <c r="I47" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="H47" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s" s="38">
+      <c r="K47" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s" s="56">
         <v>89</v>
       </c>
-      <c r="J47" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s" s="8">
+      <c r="O47" t="s" s="57">
+        <v>89</v>
+      </c>
+      <c r="P47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R47" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L47" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M47" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N47" t="s" s="8">
+      <c r="S47" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V47" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W47" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X47" t="s" s="8">
         <v>111</v>
       </c>
-      <c r="O47" t="s" s="8">
+      <c r="Y47" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="Z47" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P47" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q47" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R47" t="s" s="8">
+      <c r="AA47" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB47" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC47" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF47" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="AG47" t="s" s="8">
         <v>144</v>
       </c>
     </row>
@@ -2916,45 +4298,90 @@
         <v>71</v>
       </c>
       <c r="E48" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F48" t="s" s="8">
+      <c r="G48" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G48" t="s" s="8">
+      <c r="I48" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="H48" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s" s="39">
+      <c r="K48" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s" s="58">
         <v>89</v>
       </c>
-      <c r="J48" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s" s="8">
+      <c r="O48" t="s" s="59">
+        <v>89</v>
+      </c>
+      <c r="P48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R48" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L48" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M48" t="n" s="8">
+      <c r="S48" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V48" t="n" s="8">
         <v>2.0160212E7</v>
       </c>
-      <c r="N48" t="s" s="8">
+      <c r="W48" t="n" s="8">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="X48" t="s" s="8">
         <v>112</v>
       </c>
-      <c r="O48" t="s" s="8">
+      <c r="Y48" t="s" s="8">
+        <v>112</v>
+      </c>
+      <c r="Z48" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P48" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q48" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R48" t="s" s="8">
+      <c r="AA48" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB48" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC48" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE48" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF48" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="AG48" t="s" s="8">
         <v>145</v>
       </c>
     </row>
@@ -2964,45 +4391,90 @@
         <v>72</v>
       </c>
       <c r="E49" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F49" t="s" s="8">
+      <c r="G49" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G49" t="s" s="8">
+      <c r="I49" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J49" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="H49" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s" s="40">
+      <c r="K49" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s" s="60">
         <v>89</v>
       </c>
-      <c r="J49" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s" s="8">
+      <c r="O49" t="s" s="61">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R49" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L49" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M49" t="n" s="8">
+      <c r="S49" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V49" t="n" s="8">
         <v>2.0160211E7</v>
       </c>
-      <c r="N49" t="s" s="8">
+      <c r="W49" t="n" s="8">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="X49" t="s" s="8">
         <v>113</v>
       </c>
-      <c r="O49" t="s" s="8">
+      <c r="Y49" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="Z49" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P49" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q49" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R49" t="s" s="8">
+      <c r="AA49" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB49" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC49" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE49" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF49" t="s" s="8">
+        <v>146</v>
+      </c>
+      <c r="AG49" t="s" s="8">
         <v>146</v>
       </c>
     </row>
@@ -3012,45 +4484,90 @@
         <v>73</v>
       </c>
       <c r="E50" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F50" t="s" s="8">
+      <c r="G50" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G50" t="s" s="8">
+      <c r="I50" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="H50" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s" s="41">
+      <c r="K50" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s" s="62">
         <v>89</v>
       </c>
-      <c r="J50" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s" s="8">
+      <c r="O50" t="s" s="63">
+        <v>89</v>
+      </c>
+      <c r="P50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R50" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L50" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M50" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N50" t="s" s="8">
+      <c r="S50" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V50" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W50" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X50" t="s" s="8">
         <v>114</v>
       </c>
-      <c r="O50" t="s" s="8">
+      <c r="Y50" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="Z50" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P50" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q50" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R50" t="s" s="8">
+      <c r="AA50" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB50" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC50" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE50" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF50" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="AG50" t="s" s="8">
         <v>147</v>
       </c>
     </row>
@@ -3059,45 +4576,90 @@
         <v>74</v>
       </c>
       <c r="E51" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F51" t="s" s="8">
+      <c r="G51" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H51" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G51" t="s" s="8">
+      <c r="I51" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H51" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s" s="42">
+      <c r="K51" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s" s="64">
         <v>89</v>
       </c>
-      <c r="J51" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K51" t="s" s="8">
+      <c r="O51" t="s" s="65">
+        <v>89</v>
+      </c>
+      <c r="P51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R51" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L51" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M51" t="n" s="8">
+      <c r="S51" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V51" t="n" s="8">
         <v>2.016031E7</v>
       </c>
-      <c r="N51" t="s" s="8">
+      <c r="W51" t="n" s="8">
+        <v>2.016031E7</v>
+      </c>
+      <c r="X51" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="O51" t="s" s="8">
+      <c r="Y51" t="s" s="8">
+        <v>115</v>
+      </c>
+      <c r="Z51" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P51" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q51" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R51" t="s" s="8">
+      <c r="AA51" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB51" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC51" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE51" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF51" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="AG51" t="s" s="8">
         <v>148</v>
       </c>
     </row>
@@ -3106,45 +4668,90 @@
         <v>75</v>
       </c>
       <c r="E52" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F52" t="s" s="8">
+      <c r="G52" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G52" t="s" s="8">
+      <c r="I52" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="H52" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s" s="43">
+      <c r="K52" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s" s="66">
         <v>89</v>
       </c>
-      <c r="J52" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K52" t="s" s="8">
+      <c r="O52" t="s" s="67">
+        <v>89</v>
+      </c>
+      <c r="P52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R52" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L52" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M52" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N52" t="s" s="8">
+      <c r="S52" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V52" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W52" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X52" t="s" s="8">
         <v>116</v>
       </c>
-      <c r="O52" t="s" s="8">
+      <c r="Y52" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="Z52" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P52" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q52" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R52" t="s" s="8">
+      <c r="AA52" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB52" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC52" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE52" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF52" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="AG52" t="s" s="8">
         <v>149</v>
       </c>
     </row>
@@ -3153,45 +4760,90 @@
         <v>76</v>
       </c>
       <c r="E53" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="F53" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F53" t="s" s="8">
+      <c r="G53" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G53" t="s" s="8">
+      <c r="I53" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="H53" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s" s="44">
+      <c r="K53" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N53" t="s" s="68">
         <v>89</v>
       </c>
-      <c r="J53" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K53" t="s" s="8">
+      <c r="O53" t="s" s="69">
+        <v>89</v>
+      </c>
+      <c r="P53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R53" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L53" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M53" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N53" t="s" s="8">
+      <c r="S53" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V53" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W53" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X53" t="s" s="8">
         <v>117</v>
       </c>
-      <c r="O53" t="s" s="8">
+      <c r="Y53" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="Z53" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P53" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q53" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R53" t="s" s="8">
+      <c r="AA53" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB53" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC53" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE53" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF53" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="AG53" t="s" s="8">
         <v>150</v>
       </c>
     </row>
@@ -3200,45 +4852,90 @@
         <v>77</v>
       </c>
       <c r="E54" t="s" s="8">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F54" t="s" s="8">
+      <c r="G54" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G54" t="s" s="8">
+      <c r="I54" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="H54" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s" s="45">
+      <c r="K54" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N54" t="s" s="70">
         <v>89</v>
       </c>
-      <c r="J54" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s" s="8">
+      <c r="O54" t="s" s="71">
+        <v>89</v>
+      </c>
+      <c r="P54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R54" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L54" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M54" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N54" t="s" s="8">
+      <c r="S54" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V54" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W54" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X54" t="s" s="8">
         <v>118</v>
       </c>
-      <c r="O54" t="s" s="8">
+      <c r="Y54" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="Z54" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P54" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q54" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R54" t="s" s="8">
+      <c r="AA54" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB54" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC54" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE54" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF54" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="AG54" t="s" s="8">
         <v>151</v>
       </c>
     </row>
@@ -3247,45 +4944,90 @@
         <v>78</v>
       </c>
       <c r="E55" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F55" t="s" s="8">
+      <c r="G55" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G55" t="s" s="8">
+      <c r="I55" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="H55" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s" s="46">
+      <c r="K55" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N55" t="s" s="72">
         <v>89</v>
       </c>
-      <c r="J55" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s" s="8">
+      <c r="O55" t="s" s="73">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R55" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="L55" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M55" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N55" t="s" s="8">
+      <c r="S55" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="T55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V55" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W55" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X55" t="s" s="8">
         <v>119</v>
       </c>
-      <c r="O55" t="s" s="8">
+      <c r="Y55" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="Z55" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P55" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q55" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R55" t="s" s="8">
+      <c r="AA55" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB55" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC55" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE55" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF55" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="AG55" t="s" s="8">
         <v>152</v>
       </c>
     </row>
@@ -3294,45 +5036,90 @@
         <v>79</v>
       </c>
       <c r="E56" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="F56" t="s" s="8">
+      <c r="G56" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="G56" t="s" s="8">
+      <c r="I56" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="J56" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="H56" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s" s="47">
+      <c r="K56" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="L56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N56" t="s" s="74">
         <v>89</v>
       </c>
-      <c r="J56" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K56" t="s" s="8">
+      <c r="O56" t="s" s="75">
+        <v>89</v>
+      </c>
+      <c r="P56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R56" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L56" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M56" t="n" s="8">
+      <c r="S56" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V56" t="n" s="8">
         <v>2.0160301E7</v>
       </c>
-      <c r="N56" t="s" s="8">
+      <c r="W56" t="n" s="8">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="X56" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="O56" t="s" s="8">
+      <c r="Y56" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="Z56" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P56" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q56" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R56" t="s" s="8">
+      <c r="AA56" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB56" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC56" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE56" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF56" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="AG56" t="s" s="8">
         <v>153</v>
       </c>
     </row>
@@ -3341,45 +5128,90 @@
         <v>80</v>
       </c>
       <c r="E57" t="s" s="8">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="F57" t="s" s="8">
+      <c r="G57" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="H57" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="G57" t="s" s="8">
+      <c r="I57" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="H57" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s" s="48">
+      <c r="K57" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s" s="76">
         <v>89</v>
       </c>
-      <c r="J57" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K57" t="s" s="8">
+      <c r="O57" t="s" s="77">
+        <v>89</v>
+      </c>
+      <c r="P57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R57" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L57" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M57" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="N57" t="s" s="8">
+      <c r="S57" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V57" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="W57" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="X57" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="O57" t="s" s="8">
+      <c r="Y57" t="s" s="8">
+        <v>121</v>
+      </c>
+      <c r="Z57" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P57" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q57" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R57" t="s" s="8">
+      <c r="AA57" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB57" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC57" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE57" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF57" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="AG57" t="s" s="8">
         <v>154</v>
       </c>
     </row>
@@ -3388,45 +5220,90 @@
         <v>81</v>
       </c>
       <c r="E58" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F58" t="s" s="8">
+      <c r="G58" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G58" t="s" s="8">
+      <c r="I58" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="H58" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s" s="8">
+      <c r="K58" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="L58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s" s="8">
         <v>90</v>
       </c>
-      <c r="J58" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K58" t="s" s="8">
+      <c r="O58" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="P58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R58" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="L58" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M58" t="n" s="8">
+      <c r="S58" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="T58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V58" t="n" s="8">
         <v>2.0160205E7</v>
       </c>
-      <c r="N58" t="s" s="8">
+      <c r="W58" t="n" s="8">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="X58" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="O58" t="s" s="8">
+      <c r="Y58" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="Z58" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P58" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q58" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R58" t="s" s="8">
+      <c r="AA58" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB58" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC58" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE58" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF58" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="AG58" t="s" s="8">
         <v>155</v>
       </c>
     </row>
@@ -3435,45 +5312,90 @@
         <v>82</v>
       </c>
       <c r="E59" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="F59" t="s" s="8">
+      <c r="G59" t="s" s="8">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="G59" t="s" s="8">
+      <c r="I59" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="H59" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s" s="8">
+      <c r="K59" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="L59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="M59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="N59" t="s" s="8">
         <v>91</v>
       </c>
-      <c r="J59" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="K59" t="s" s="8">
+      <c r="O59" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="P59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="R59" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="L59" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="M59" t="n" s="8">
+      <c r="S59" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="T59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="U59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="V59" t="n" s="8">
         <v>2.0160208E7</v>
       </c>
-      <c r="N59" t="s" s="8">
+      <c r="W59" t="n" s="8">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="X59" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="O59" t="s" s="8">
+      <c r="Y59" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="Z59" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="P59" t="n" s="8">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="Q59" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="R59" t="s" s="8">
+      <c r="AA59" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="AB59" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AC59" t="n" s="8">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AD59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AE59" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF59" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="AG59" t="s" s="8">
         <v>156</v>
       </c>
     </row>

--- a/src/main/resources/excel/dir_output.xlsx
+++ b/src/main/resources/excel/dir_output.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList/>
 </comments>
